--- a/biology/Histoire de la zoologie et de la botanique/Johann_Georg_Wagler/Johann_Georg_Wagler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Georg_Wagler/Johann_Georg_Wagler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Georg Wagler est un zoologiste allemand, né le 28 mars 1800 à Nuremberg et mort le 23 août 1832 à Moosach, un village près de Munich.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Georg Wagler fait ses études à l'université d'Erlangen où il obtient un titre de docteur en 1820. Il participe aux travaux de l'Académie bavaroise des sciences de Munich et en devient le secrétaire en 1819.
 En 1820, Wagler collabore avec Johann Baptist von Spix et Carl Friedrich Philipp von Martius pour l'organisation et le classement de l'immense collection qu'ils ont rapporté du Brésil. Il s'occupe plus particulièrement des serpents et fait paraître, à partir des notes de Spix, Serpentum Brasiliensium en 1824.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Serpentum Brasiliensium Species Novae (1824) Herpetology of Brazil (Facsimilé de 1981) (avec Johann Baptist von Spix)
 Descriptiones et Icones Amphibiorum (1828-1833)
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kraig Adler (1989), Contributions to the History of Herpetology, Society for the study of amphibians and reptiles
 Jean Lescure &amp; Bernard Le Garff, L'étymologie des noms d'amphibiens et de reptiles. Éditions Belin, 2006 (ISBN 2-7011-4142-7)</t>
